--- a/venues.xlsx
+++ b/venues.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\ConferenceApps\anyconference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\FoCoMX\2019 App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D3EF1A-59C1-4451-8151-1F7941FA9072}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{31B9CA94-A92B-488C-9711-B7ACD047F8FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="224">
   <si>
     <t>VENUE</t>
   </si>
@@ -527,13 +527,184 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>http://www.focoma.org/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/focoma_logo_transparent_1276x904_0.png?itok=6ENd_0Ar</t>
+  </si>
+  <si>
+    <t>http://odellbrewing.com/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Odell_Logo_Leaf%20NoFortCollins_2Color%20copy.png?itok=__ceoBX1</t>
+  </si>
+  <si>
+    <t>http://www.bohemianfoundation.org/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/BOFO-logo-black-PNG.png?itok=f7LltPHu</t>
+  </si>
+  <si>
+    <t>https://www.fcgov.com/fortfund/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/download.png?itok=YcB_tAF8</t>
+  </si>
+  <si>
+    <t>http://coloradosound.org/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/105_5_logo_FINAL.png?itok=j3wbE30P</t>
+  </si>
+  <si>
+    <t>http://scenenoco.com/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Screen%20Shot%202018-03-16%20at%201.50.34%20PM.png?itok=AhR7_Lrh</t>
+  </si>
+  <si>
+    <t>https://www.colostate.edu/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/csu-ram-greengold.png?itok=ckhErgmP</t>
+  </si>
+  <si>
+    <t>https://www.decibullz.com/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/DBZ-Logo-Primary-Black%20%281%29.png?itok=aExYD_30</t>
+  </si>
+  <si>
+    <t>http://www.independentav.com/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Screen%20shot%202013-02-28%20at%209.31.12%20AM.png?itok=pXPV-2bM</t>
+  </si>
+  <si>
+    <t>http://organicalternatives.com/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Organic%20Alternatives%20-%20Colorado%20Logo%20copy.png?itok=oAij-qDi</t>
+  </si>
+  <si>
+    <t>https://www.spacesworks.com/fort-collins/linden-street/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/4056935654.png?itok=DepZCUt7</t>
+  </si>
+  <si>
+    <t>http://www.radio949.com/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Radio%2094.9_1.jpg?itok=YITwdPTc</t>
+  </si>
+  <si>
+    <t>https://www.kgnu.org/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/kgnu-logo-blue-RGB.jpg?itok=0Nqz0JPK</t>
+  </si>
+  <si>
+    <t>https://www.krfcfm.org/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Logo-Color%28DB%29.jpg?itok=aYK9dxrl</t>
+  </si>
+  <si>
+    <t>https://www.bestwestern.com/en_US/book/hotel-rooms.06040.html?groupId=Y89DF1Z0</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/BW%20University.png?itok=tGIQ8HId</t>
+  </si>
+  <si>
+    <t>http://www.downtownfortcollins.com/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/DBA%20Logo%20Blue.png?itok=2Un0GW5_</t>
+  </si>
+  <si>
+    <t>https://www.fnbo.com/business-digital-banking/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/CMYK_CSU_H_Green%20copy.png?itok=cwGbaZ3X</t>
+  </si>
+  <si>
+    <t>http://www.justgowest.com/</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Go%20West.png?itok=dADKv_nE</t>
+  </si>
+  <si>
+    <t>AloTerra Restoration Services</t>
+  </si>
+  <si>
+    <t>http://www.aloterraservices.com/</t>
+  </si>
+  <si>
+    <t>Art Lab</t>
+  </si>
+  <si>
+    <t>https://www.artlabfortcollins.org/</t>
+  </si>
+  <si>
+    <t>Cheeba Hut Toasted Subs</t>
+  </si>
+  <si>
+    <t>https://chebahut.com/</t>
+  </si>
+  <si>
+    <t>CUBE Backstage Passes</t>
+  </si>
+  <si>
+    <t>http://cubepasses.com/</t>
+  </si>
+  <si>
+    <t>Downtown Creative District Fort Collins</t>
+  </si>
+  <si>
+    <t>http://www.dfccd.org/</t>
+  </si>
+  <si>
+    <t>Higher Ground Rehearsal Studios</t>
+  </si>
+  <si>
+    <t>http://www.highergroundrehearsalstudios.com/</t>
+  </si>
+  <si>
+    <t>Horner Painting</t>
+  </si>
+  <si>
+    <t>http://www.hornerpainting.com/</t>
+  </si>
+  <si>
+    <t>Little Guy Movers</t>
+  </si>
+  <si>
+    <t>http://www.littleguys.com/</t>
+  </si>
+  <si>
+    <t>Marc Leverette Photography</t>
+  </si>
+  <si>
+    <t>http://www.marcleverettephotography.com/</t>
+  </si>
+  <si>
+    <t>Mueller Family</t>
+  </si>
+  <si>
+    <t>https://www.syntaxspirits.com/</t>
+  </si>
+  <si>
+    <t>Syntax Spirits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +725,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -577,10 +754,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -895,16 +1073,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2B1881-9501-40B1-974F-0241FEAE8EC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>377</v>
       </c>
@@ -950,7 +1128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>378</v>
       </c>
@@ -982,7 +1160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>379</v>
       </c>
@@ -1014,7 +1192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>380</v>
       </c>
@@ -1046,7 +1224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>381</v>
       </c>
@@ -1078,7 +1256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>382</v>
       </c>
@@ -1110,7 +1288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>383</v>
       </c>
@@ -1142,7 +1320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>384</v>
       </c>
@@ -1174,7 +1352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>385</v>
       </c>
@@ -1206,7 +1384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>386</v>
       </c>
@@ -1238,7 +1416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>387</v>
       </c>
@@ -1270,7 +1448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>388</v>
       </c>
@@ -1302,7 +1480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>389</v>
       </c>
@@ -1334,7 +1512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>390</v>
       </c>
@@ -1366,7 +1544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>391</v>
       </c>
@@ -1398,7 +1576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>392</v>
       </c>
@@ -1424,7 +1602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>393</v>
       </c>
@@ -1444,7 +1622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>394</v>
       </c>
@@ -1464,7 +1642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>395</v>
       </c>
@@ -1484,7 +1662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>396</v>
       </c>
@@ -1504,7 +1682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>397</v>
       </c>
@@ -1524,7 +1702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>398</v>
       </c>
@@ -1544,7 +1722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>399</v>
       </c>
@@ -1564,7 +1742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>400</v>
       </c>
@@ -1584,7 +1762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>401</v>
       </c>
@@ -1604,7 +1782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>402</v>
       </c>
@@ -1624,7 +1802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>403</v>
       </c>
@@ -1644,7 +1822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>404</v>
       </c>
@@ -1664,7 +1842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>405</v>
       </c>
@@ -1684,7 +1862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>406</v>
       </c>
@@ -1704,7 +1882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>407</v>
       </c>
@@ -1726,29 +1904,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{2E5018CC-9BC4-4158-9D31-52B05939B266}"/>
-    <hyperlink ref="E26" r:id="rId2" xr:uid="{FD77BF3A-119D-43EE-8C64-761D780DA290}"/>
+    <hyperlink ref="E20" r:id="rId1"/>
+    <hyperlink ref="E26" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DC0D24-C46A-477C-B2DF-684060C1A1DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -1768,7 +1946,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1788,7 +1966,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1808,7 +1986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +2006,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +2026,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1868,7 +2046,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1888,7 +2066,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1908,7 +2086,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +2106,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1948,7 +2126,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1968,7 +2146,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1988,7 +2166,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2008,7 +2186,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2028,7 +2206,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2048,7 +2226,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2068,7 +2246,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2088,7 +2266,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2108,7 +2286,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2128,7 +2306,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2148,7 +2326,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2346,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2188,7 +2366,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2208,7 +2386,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2228,7 +2406,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2248,7 +2426,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2268,7 +2446,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2288,7 +2466,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2308,7 +2486,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2328,7 +2506,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2348,7 +2526,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2368,7 +2546,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2394,4 +2572,435 @@
     <customPr name="SSC_SHEET_GUID" r:id="rId1"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("&lt;div class=@sponsor_col@&gt;&lt;a href=@",A1,"@ target=@_blank@&gt;&lt;img src=@",B1,"@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;")</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.focoma.org/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/focoma_logo_transparent_1276x904_0.png?itok=6ENd_0Ar@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C18" si="0">CONCATENATE("&lt;div class=@sponsor_col@&gt;&lt;a href=@",A2,"@ target=@_blank@&gt;&lt;img src=@",B2,"@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;")</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://odellbrewing.com/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Odell_Logo_Leaf%20NoFortCollins_2Color%20copy.png?itok=__ceoBX1@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.bohemianfoundation.org/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/BOFO-logo-black-PNG.png?itok=f7LltPHu@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.fcgov.com/fortfund/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/download.png?itok=YcB_tAF8@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://coloradosound.org/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/105_5_logo_FINAL.png?itok=j3wbE30P@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://scenenoco.com/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Screen%20Shot%202018-03-16%20at%201.50.34%20PM.png?itok=AhR7_Lrh@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.colostate.edu/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/csu-ram-greengold.png?itok=ckhErgmP@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.decibullz.com/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/DBZ-Logo-Primary-Black%20%281%29.png?itok=aExYD_30@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.independentav.com/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Screen%20shot%202013-02-28%20at%209.31.12%20AM.png?itok=pXPV-2bM@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://organicalternatives.com/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Organic%20Alternatives%20-%20Colorado%20Logo%20copy.png?itok=oAij-qDi@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.spacesworks.com/fort-collins/linden-street/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/4056935654.png?itok=DepZCUt7@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.radio949.com/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Radio%2094.9_1.jpg?itok=YITwdPTc@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.kgnu.org/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/kgnu-logo-blue-RGB.jpg?itok=0Nqz0JPK@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.krfcfm.org/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Logo-Color%28DB%29.jpg?itok=aYK9dxrl@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.bestwestern.com/en_US/book/hotel-rooms.06040.html?groupId=Y89DF1Z0@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/BW%20University.png?itok=tGIQ8HId@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.downtownfortcollins.com/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/DBA%20Logo%20Blue.png?itok=2Un0GW5_@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.fnbo.com/business-digital-banking/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/CMYK_CSU_H_Green%20copy.png?itok=cwGbaZ3X@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.justgowest.com/@ target=@_blank@&gt;&lt;img src=@https://focomx.focoma.org/sites/default/files/styles/sponsor_page/public/Go%20West.png?itok=dADKv_nE@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE("&lt;div class=@sponsor_col@&gt;&lt;a href=@",A19,"@ target=@_blank@&gt;&lt;img src=@",B19,"@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;")</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.aloterraservices.com/@ target=@_blank@&gt;&lt;img src=@http://www.aloterraservices.com/@ alt=@FoCoMX logo@ class=@sponsor_img@&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE("&lt;div class=@sponsor_col@&gt;&lt;a href=@",A20,"@ target=@_blank@&gt;",B20,"&gt;&lt;/a&gt;&lt;/div&gt;")</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.aloterraservices.com/@ target=@_blank@&gt;AloTerra Restoration Services&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE("&lt;div class=@sponsor_col@&gt;&lt;a href=@",A21,"@ target=@_blank@&gt;",B21,"&gt;&lt;/a&gt;&lt;/div&gt;")</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.artlabfortcollins.org/@ target=@_blank@&gt;Art Lab&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:C30" si="1">CONCATENATE("&lt;div class=@sponsor_col@&gt;&lt;a href=@",A22,"@ target=@_blank@&gt;",B22,"&gt;&lt;/a&gt;&lt;/div&gt;")</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://chebahut.com/@ target=@_blank@&gt;Cheeba Hut Toasted Subs&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://cubepasses.com/@ target=@_blank@&gt;CUBE Backstage Passes&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.dfccd.org/@ target=@_blank@&gt;Downtown Creative District Fort Collins&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.highergroundrehearsalstudios.com/@ target=@_blank@&gt;Higher Ground Rehearsal Studios&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.hornerpainting.com/@ target=@_blank@&gt;Horner Painting&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.littleguys.com/@ target=@_blank@&gt;Little Guy Movers&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.marcleverettephotography.com/@ target=@_blank@&gt;Marc Leverette Photography&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.focoma.org/@ target=@_blank@&gt;Mueller Family&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.syntaxspirits.com/@ target=@_blank@&gt;Syntax Spirits&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f>CONCATENATE(C20,C21)</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.aloterraservices.com/@ target=@_blank@&gt;AloTerra Restoration Services&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.artlabfortcollins.org/@ target=@_blank@&gt;Art Lab&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" t="str">
+        <f>CONCATENATE(C22,C23)</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://chebahut.com/@ target=@_blank@&gt;Cheeba Hut Toasted Subs&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class=@sponsor_col@&gt;&lt;a href=@http://cubepasses.com/@ target=@_blank@&gt;CUBE Backstage Passes&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="str">
+        <f>CONCATENATE(C24,C25)</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.dfccd.org/@ target=@_blank@&gt;Downtown Creative District Fort Collins&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.highergroundrehearsalstudios.com/@ target=@_blank@&gt;Higher Ground Rehearsal Studios&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" t="str">
+        <f>CONCATENATE(C26,C27)</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.hornerpainting.com/@ target=@_blank@&gt;Horner Painting&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.littleguys.com/@ target=@_blank@&gt;Little Guy Movers&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" t="str">
+        <f>CONCATENATE(C28,C29)</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.marcleverettephotography.com/@ target=@_blank@&gt;Marc Leverette Photography&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.focoma.org/@ target=@_blank@&gt;Mueller Family&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" t="str">
+        <f>CONCATENATE(C30,C31)</f>
+        <v>&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.syntaxspirits.com/@ target=@_blank@&gt;Syntax Spirits&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class=@sponsor_col@&gt;&lt;a href=@http://www.aloterraservices.com/@ target=@_blank@&gt;AloTerra Restoration Services&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class=@sponsor_col@&gt;&lt;a href=@https://www.artlabfortcollins.org/@ target=@_blank@&gt;Art Lab&gt;&lt;/a&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>